--- a/TestData/NoticeUpdation.xlsx
+++ b/TestData/NoticeUpdation.xlsx
@@ -556,7 +556,7 @@
   <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -703,7 +703,7 @@
         <v>50209025</v>
       </c>
       <c r="B2" s="5">
-        <v>13122024</v>
+        <v>2024</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
